--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H2">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>560.8345139529979</v>
+        <v>1065.424940155801</v>
       </c>
       <c r="R2">
-        <v>560.8345139529979</v>
+        <v>9588.824461402208</v>
       </c>
       <c r="S2">
-        <v>0.003468681284355336</v>
+        <v>0.00642597056106362</v>
       </c>
       <c r="T2">
-        <v>0.003468681284355336</v>
+        <v>0.006425970561063619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H3">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>596.9755670106712</v>
+        <v>1122.997353952232</v>
       </c>
       <c r="R3">
-        <v>596.9755670106712</v>
+        <v>10106.97618557009</v>
       </c>
       <c r="S3">
-        <v>0.003692208530306091</v>
+        <v>0.006773211011555738</v>
       </c>
       <c r="T3">
-        <v>0.003692208530306091</v>
+        <v>0.006773211011555738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H4">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>384.9447560651801</v>
+        <v>725.5563517299582</v>
       </c>
       <c r="R4">
-        <v>384.9447560651801</v>
+        <v>6530.007165569624</v>
       </c>
       <c r="S4">
-        <v>0.002380828279384253</v>
+        <v>0.004376097818704744</v>
       </c>
       <c r="T4">
-        <v>0.002380828279384253</v>
+        <v>0.004376097818704744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H5">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>298.4778757104706</v>
+        <v>565.9158242746995</v>
       </c>
       <c r="R5">
-        <v>298.4778757104706</v>
+        <v>5093.242418472296</v>
       </c>
       <c r="S5">
-        <v>0.001846042986858357</v>
+        <v>0.0034132469494261</v>
       </c>
       <c r="T5">
-        <v>0.001846042986858357</v>
+        <v>0.003413246949426099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H6">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I6">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J6">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>197.3231526565497</v>
+        <v>388.7466171159022</v>
       </c>
       <c r="R6">
-        <v>197.3231526565497</v>
+        <v>3498.719554043119</v>
       </c>
       <c r="S6">
-        <v>0.001220415487209346</v>
+        <v>0.002344674151268278</v>
       </c>
       <c r="T6">
-        <v>0.001220415487209346</v>
+        <v>0.002344674151268278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H7">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>43468.6011508253</v>
+        <v>44128.11898573334</v>
       </c>
       <c r="R7">
-        <v>43468.6011508253</v>
+        <v>397153.0708716001</v>
       </c>
       <c r="S7">
-        <v>0.2688470832620884</v>
+        <v>0.2661529525261237</v>
       </c>
       <c r="T7">
-        <v>0.2688470832620884</v>
+        <v>0.2661529525261237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H8">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>46269.78578096109</v>
+        <v>46512.67206925068</v>
       </c>
       <c r="R8">
-        <v>46269.78578096109</v>
+        <v>418614.0486232561</v>
       </c>
       <c r="S8">
-        <v>0.2861720097044545</v>
+        <v>0.2805350711892509</v>
       </c>
       <c r="T8">
-        <v>0.2861720097044545</v>
+        <v>0.2805350711892509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H9">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>29835.91353634381</v>
+        <v>30051.33051917497</v>
       </c>
       <c r="R9">
-        <v>29835.91353634381</v>
+        <v>270461.9746725748</v>
       </c>
       <c r="S9">
-        <v>0.1845308594788678</v>
+        <v>0.1812506521658598</v>
       </c>
       <c r="T9">
-        <v>0.1845308594788678</v>
+        <v>0.1812506521658598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H10">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J10">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>23134.1249670155</v>
+        <v>23439.2868875882</v>
       </c>
       <c r="R10">
-        <v>23134.1249670155</v>
+        <v>210953.5819882938</v>
       </c>
       <c r="S10">
-        <v>0.1430812553553886</v>
+        <v>0.1413709796299124</v>
       </c>
       <c r="T10">
-        <v>0.1430812553553886</v>
+        <v>0.1413709796299123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H11">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J11">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>15293.92576108434</v>
+        <v>16101.23466124537</v>
       </c>
       <c r="R11">
-        <v>15293.92576108434</v>
+        <v>144911.1119512083</v>
       </c>
       <c r="S11">
-        <v>0.09459074420701424</v>
+        <v>0.09711248163085962</v>
       </c>
       <c r="T11">
-        <v>0.09459074420701424</v>
+        <v>0.0971124816308596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H12">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>452.3742879290827</v>
+        <v>5.758405372114667</v>
       </c>
       <c r="R12">
-        <v>452.3742879290827</v>
+        <v>51.825648349032</v>
       </c>
       <c r="S12">
-        <v>0.002797870293329855</v>
+        <v>3.473106551688974E-05</v>
       </c>
       <c r="T12">
-        <v>0.002797870293329855</v>
+        <v>3.473106551688973E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H13">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I13">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J13">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>481.5259944222075</v>
+        <v>6.069572573478</v>
       </c>
       <c r="R13">
-        <v>481.5259944222075</v>
+        <v>54.626153161302</v>
       </c>
       <c r="S13">
-        <v>0.002978169430069853</v>
+        <v>3.660782961369879E-05</v>
       </c>
       <c r="T13">
-        <v>0.002978169430069853</v>
+        <v>3.660782961369878E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H14">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I14">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J14">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>310.4999881152365</v>
+        <v>3.921484692260667</v>
       </c>
       <c r="R14">
-        <v>310.4999881152365</v>
+        <v>35.29336223034601</v>
       </c>
       <c r="S14">
-        <v>0.001920398033238977</v>
+        <v>2.365191975367471E-05</v>
       </c>
       <c r="T14">
-        <v>0.001920398033238977</v>
+        <v>2.365191975367471E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H15">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I15">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J15">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>240.7550054924497</v>
+        <v>3.058660070592667</v>
       </c>
       <c r="R15">
-        <v>240.7550054924497</v>
+        <v>27.527940635334</v>
       </c>
       <c r="S15">
-        <v>0.001489035287397655</v>
+        <v>1.84479063978501E-05</v>
       </c>
       <c r="T15">
-        <v>0.001489035287397655</v>
+        <v>1.844790639785009E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.035174</v>
+      </c>
+      <c r="H16">
+        <v>0.105522</v>
+      </c>
+      <c r="I16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N16">
+        <v>179.20309</v>
+      </c>
+      <c r="O16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q16">
+        <v>2.101096495886666</v>
+      </c>
+      <c r="R16">
+        <v>18.90986846298</v>
+      </c>
+      <c r="S16">
+        <v>1.267248749268744E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.267248749268744E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.822191</v>
+      </c>
+      <c r="H17">
+        <v>8.466573</v>
+      </c>
+      <c r="I17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N17">
+        <v>491.135956</v>
+      </c>
+      <c r="O17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q17">
+        <v>462.0264915998653</v>
+      </c>
+      <c r="R17">
+        <v>4158.238424398788</v>
+      </c>
+      <c r="S17">
+        <v>0.002786652087399118</v>
+      </c>
+      <c r="T17">
+        <v>0.002786652087399117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.822191</v>
+      </c>
+      <c r="H18">
+        <v>8.466573</v>
+      </c>
+      <c r="I18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q18">
+        <v>486.993037206927</v>
+      </c>
+      <c r="R18">
+        <v>4382.937334862343</v>
+      </c>
+      <c r="S18">
+        <v>0.002937234527358679</v>
+      </c>
+      <c r="T18">
+        <v>0.002937234527358679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.822191</v>
+      </c>
+      <c r="H19">
+        <v>8.466573</v>
+      </c>
+      <c r="I19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N19">
+        <v>334.464493</v>
+      </c>
+      <c r="O19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q19">
+        <v>314.6408939880544</v>
+      </c>
+      <c r="R19">
+        <v>2831.768045892489</v>
+      </c>
+      <c r="S19">
+        <v>0.001897715217534058</v>
+      </c>
+      <c r="T19">
+        <v>0.001897715217534058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="H16">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="I16">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="J16">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q16">
-        <v>159.1626735768429</v>
-      </c>
-      <c r="R16">
-        <v>159.1626735768429</v>
-      </c>
-      <c r="S16">
-        <v>0.0009843983800366129</v>
-      </c>
-      <c r="T16">
-        <v>0.0009843983800366129</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.822191</v>
+      </c>
+      <c r="H20">
+        <v>8.466573</v>
+      </c>
+      <c r="I20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N20">
+        <v>260.873947</v>
+      </c>
+      <c r="O20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q20">
+        <v>245.4120351192923</v>
+      </c>
+      <c r="R20">
+        <v>2208.708316073631</v>
+      </c>
+      <c r="S20">
+        <v>0.001480170449902057</v>
+      </c>
+      <c r="T20">
+        <v>0.001480170449902057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.822191</v>
+      </c>
+      <c r="H21">
+        <v>8.466573</v>
+      </c>
+      <c r="I21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>168.5817825900633</v>
+      </c>
+      <c r="R21">
+        <v>1517.23604331057</v>
+      </c>
+      <c r="S21">
+        <v>0.001016778875006398</v>
+      </c>
+      <c r="T21">
+        <v>0.001016778875006398</v>
       </c>
     </row>
   </sheetData>
